--- a/res/DAnet_camvid.xlsx
+++ b/res/DAnet_camvid.xlsx
@@ -468,16 +468,16 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6007161954118381</v>
+        <v>0.5700024889340518</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5291940896654131</v>
+        <v>0.5468352353394526</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0921878255866084</v>
+        <v>0.5730206899436755</v>
       </c>
       <c r="F2" t="n">
-        <v>146.1868100166321</v>
+        <v>177.0054585933685</v>
       </c>
     </row>
   </sheetData>

--- a/res/DAnet_camvid.xlsx
+++ b/res/DAnet_camvid.xlsx
@@ -468,16 +468,16 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5700024889340518</v>
+        <v>0.7046063068127437</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5468352353394526</v>
+        <v>0.5751822929337778</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5730206899436755</v>
+        <v>0.6042080885185138</v>
       </c>
       <c r="F2" t="n">
-        <v>177.0054585933685</v>
+        <v>146.1857967376709</v>
       </c>
     </row>
   </sheetData>

--- a/res/DAnet_camvid.xlsx
+++ b/res/DAnet_camvid.xlsx
@@ -468,16 +468,16 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7046063068127437</v>
+        <v>0.4590210549188245</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5751822929337778</v>
+        <v>0.5950105763950676</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6042080885185138</v>
+        <v>0.4956604731542988</v>
       </c>
       <c r="F2" t="n">
-        <v>146.1857967376709</v>
+        <v>761.5399174690247</v>
       </c>
     </row>
   </sheetData>
